--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -439,7 +439,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">

--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
